--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.35811184104306</v>
+        <v>3.951201</v>
       </c>
       <c r="H2">
-        <v>2.35811184104306</v>
+        <v>11.853603</v>
       </c>
       <c r="I2">
-        <v>0.01766318800338327</v>
+        <v>0.02777656860153119</v>
       </c>
       <c r="J2">
-        <v>0.01766318800338327</v>
+        <v>0.03047491234640643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>7.921138812010021</v>
+        <v>15.594104889608</v>
       </c>
       <c r="R2">
-        <v>7.921138812010021</v>
+        <v>140.346944006472</v>
       </c>
       <c r="S2">
-        <v>0.0001260717463479449</v>
+        <v>0.0002244982229305455</v>
       </c>
       <c r="T2">
-        <v>0.0001260717463479449</v>
+        <v>0.0002534806764283045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.35811184104306</v>
+        <v>3.951201</v>
       </c>
       <c r="H3">
-        <v>2.35811184104306</v>
+        <v>11.853603</v>
       </c>
       <c r="I3">
-        <v>0.01766318800338327</v>
+        <v>0.02777656860153119</v>
       </c>
       <c r="J3">
-        <v>0.01766318800338327</v>
+        <v>0.03047491234640643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>412.7445073992184</v>
+        <v>734.1439892126109</v>
       </c>
       <c r="R3">
-        <v>412.7445073992184</v>
+        <v>6607.295902913499</v>
       </c>
       <c r="S3">
-        <v>0.006569184315321643</v>
+        <v>0.01056899527867135</v>
       </c>
       <c r="T3">
-        <v>0.006569184315321643</v>
+        <v>0.01193343999535355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.35811184104306</v>
+        <v>3.951201</v>
       </c>
       <c r="H4">
-        <v>2.35811184104306</v>
+        <v>11.853603</v>
       </c>
       <c r="I4">
-        <v>0.01766318800338327</v>
+        <v>0.02777656860153119</v>
       </c>
       <c r="J4">
-        <v>0.01766318800338327</v>
+        <v>0.03047491234640643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>272.5277174172659</v>
+        <v>463.631650765291</v>
       </c>
       <c r="R4">
-        <v>272.5277174172659</v>
+        <v>4172.684856887619</v>
       </c>
       <c r="S4">
-        <v>0.004337513339738515</v>
+        <v>0.006674604437252798</v>
       </c>
       <c r="T4">
-        <v>0.004337513339738515</v>
+        <v>0.007536287929413282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.35811184104306</v>
+        <v>3.951201</v>
       </c>
       <c r="H5">
-        <v>2.35811184104306</v>
+        <v>11.853603</v>
       </c>
       <c r="I5">
-        <v>0.01766318800338327</v>
+        <v>0.02777656860153119</v>
       </c>
       <c r="J5">
-        <v>0.01766318800338327</v>
+        <v>0.03047491234640643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>319.8856639207712</v>
+        <v>552.2362584636189</v>
       </c>
       <c r="R5">
-        <v>319.8856639207712</v>
+        <v>4970.126326172571</v>
       </c>
       <c r="S5">
-        <v>0.005091255845815672</v>
+        <v>0.0079501875574477</v>
       </c>
       <c r="T5">
-        <v>0.005091255845815672</v>
+        <v>0.008976547312880934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.35811184104306</v>
+        <v>3.951201</v>
       </c>
       <c r="H6">
-        <v>2.35811184104306</v>
+        <v>11.853603</v>
       </c>
       <c r="I6">
-        <v>0.01766318800338327</v>
+        <v>0.02777656860153119</v>
       </c>
       <c r="J6">
-        <v>0.01766318800338327</v>
+        <v>0.03047491234640643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>96.70621847473129</v>
+        <v>163.811159047374</v>
       </c>
       <c r="R6">
-        <v>96.70621847473129</v>
+        <v>982.8669542842439</v>
       </c>
       <c r="S6">
-        <v>0.001539162756159492</v>
+        <v>0.002358283105228803</v>
       </c>
       <c r="T6">
-        <v>0.001539162756159492</v>
+        <v>0.00177515643233036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.3050666090825</v>
+        <v>97.98840066666666</v>
       </c>
       <c r="H7">
-        <v>94.3050666090825</v>
+        <v>293.965202</v>
       </c>
       <c r="I7">
-        <v>0.7063821538044636</v>
+        <v>0.6888491709918051</v>
       </c>
       <c r="J7">
-        <v>0.7063821538044636</v>
+        <v>0.7557671506160329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>316.7803622732214</v>
+        <v>386.7283385383164</v>
       </c>
       <c r="R7">
-        <v>316.7803622732214</v>
+        <v>3480.555046844848</v>
       </c>
       <c r="S7">
-        <v>0.005041832295624861</v>
+        <v>0.005567477285380558</v>
       </c>
       <c r="T7">
-        <v>0.005041832295624861</v>
+        <v>0.006286231979368903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.3050666090825</v>
+        <v>97.98840066666666</v>
       </c>
       <c r="H8">
-        <v>94.3050666090825</v>
+        <v>293.965202</v>
       </c>
       <c r="I8">
-        <v>0.7063821538044636</v>
+        <v>0.6888491709918051</v>
       </c>
       <c r="J8">
-        <v>0.7063821538044636</v>
+        <v>0.7557671506160329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>16506.38344854716</v>
+        <v>18206.51375670089</v>
       </c>
       <c r="R8">
-        <v>16506.38344854716</v>
+        <v>163858.6238103081</v>
       </c>
       <c r="S8">
-        <v>0.2627133088605847</v>
+        <v>0.2621073805181149</v>
       </c>
       <c r="T8">
-        <v>0.2627133088605847</v>
+        <v>0.2959451315173105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.3050666090825</v>
+        <v>97.98840066666666</v>
       </c>
       <c r="H9">
-        <v>94.3050666090825</v>
+        <v>293.965202</v>
       </c>
       <c r="I9">
-        <v>0.7063821538044636</v>
+        <v>0.6888491709918051</v>
       </c>
       <c r="J9">
-        <v>0.7063821538044636</v>
+        <v>0.7557671506160329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>10898.86581990458</v>
+        <v>11497.90252557068</v>
       </c>
       <c r="R9">
-        <v>10898.86581990458</v>
+        <v>103481.1227301362</v>
       </c>
       <c r="S9">
-        <v>0.1734648362737919</v>
+        <v>0.1655278518832725</v>
       </c>
       <c r="T9">
-        <v>0.1734648362737919</v>
+        <v>0.1868973006351012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>94.3050666090825</v>
+        <v>97.98840066666666</v>
       </c>
       <c r="H10">
-        <v>94.3050666090825</v>
+        <v>293.965202</v>
       </c>
       <c r="I10">
-        <v>0.7063821538044636</v>
+        <v>0.6888491709918051</v>
       </c>
       <c r="J10">
-        <v>0.7063821538044636</v>
+        <v>0.7557671506160329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>12792.79392872021</v>
+        <v>13695.2657576757</v>
       </c>
       <c r="R10">
-        <v>12792.79392872021</v>
+        <v>123257.3918190813</v>
       </c>
       <c r="S10">
-        <v>0.2036083332888706</v>
+        <v>0.1971618664184214</v>
       </c>
       <c r="T10">
-        <v>0.2036083332888706</v>
+        <v>0.222615228812168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>94.3050666090825</v>
+        <v>97.98840066666666</v>
       </c>
       <c r="H11">
-        <v>94.3050666090825</v>
+        <v>293.965202</v>
       </c>
       <c r="I11">
-        <v>0.7063821538044636</v>
+        <v>0.6888491709918051</v>
       </c>
       <c r="J11">
-        <v>0.7063821538044636</v>
+        <v>0.7557671506160329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>3867.452856153775</v>
+        <v>4062.459360180649</v>
       </c>
       <c r="R11">
-        <v>3867.452856153775</v>
+        <v>24374.75616108389</v>
       </c>
       <c r="S11">
-        <v>0.06155384308559154</v>
+        <v>0.05848459488661567</v>
       </c>
       <c r="T11">
-        <v>0.06155384308559154</v>
+        <v>0.04402325767208447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.5897532118196</v>
+        <v>1.822422666666667</v>
       </c>
       <c r="H12">
-        <v>1.5897532118196</v>
+        <v>5.467268</v>
       </c>
       <c r="I12">
-        <v>0.01190787874036175</v>
+        <v>0.01281145864805462</v>
       </c>
       <c r="J12">
-        <v>0.01190787874036175</v>
+        <v>0.01405602271936328</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>5.340143604932551</v>
+        <v>7.192509370492444</v>
       </c>
       <c r="R12">
-        <v>5.340143604932551</v>
+        <v>64.73258433443199</v>
       </c>
       <c r="S12">
-        <v>8.499298472107183E-05</v>
+        <v>0.0001035458965755001</v>
       </c>
       <c r="T12">
-        <v>8.499298472107183E-05</v>
+        <v>0.0001169135486362099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.5897532118196</v>
+        <v>1.822422666666667</v>
       </c>
       <c r="H13">
-        <v>1.5897532118196</v>
+        <v>5.467268</v>
       </c>
       <c r="I13">
-        <v>0.01190787874036175</v>
+        <v>0.01281145864805462</v>
       </c>
       <c r="J13">
-        <v>0.01190787874036175</v>
+        <v>0.01405602271936328</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>278.2573306652695</v>
+        <v>338.6111328019382</v>
       </c>
       <c r="R13">
-        <v>278.2573306652695</v>
+        <v>3047.500195217444</v>
       </c>
       <c r="S13">
-        <v>0.004428705069263431</v>
+        <v>0.004874765054914606</v>
       </c>
       <c r="T13">
-        <v>0.004428705069263431</v>
+        <v>0.0055040914240604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5897532118196</v>
+        <v>1.822422666666667</v>
       </c>
       <c r="H14">
-        <v>1.5897532118196</v>
+        <v>5.467268</v>
       </c>
       <c r="I14">
-        <v>0.01190787874036175</v>
+        <v>0.01281145864805462</v>
       </c>
       <c r="J14">
-        <v>0.01190787874036175</v>
+        <v>0.01405602271936328</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>183.7282721426492</v>
+        <v>213.8420265986849</v>
       </c>
       <c r="R14">
-        <v>183.7282721426492</v>
+        <v>1924.578239388164</v>
       </c>
       <c r="S14">
-        <v>0.002924193688841134</v>
+        <v>0.00307854508476876</v>
       </c>
       <c r="T14">
-        <v>0.002924193688841134</v>
+        <v>0.00347598159270793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5897532118196</v>
+        <v>1.822422666666667</v>
       </c>
       <c r="H15">
-        <v>1.5897532118196</v>
+        <v>5.467268</v>
       </c>
       <c r="I15">
-        <v>0.01190787874036175</v>
+        <v>0.01281145864805462</v>
       </c>
       <c r="J15">
-        <v>0.01190787874036175</v>
+        <v>0.01405602271936328</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>215.6552767268875</v>
+        <v>254.7093591997195</v>
       </c>
       <c r="R15">
-        <v>215.6552767268875</v>
+        <v>2292.384232797476</v>
       </c>
       <c r="S15">
-        <v>0.003432339464230264</v>
+        <v>0.00366688558970905</v>
       </c>
       <c r="T15">
-        <v>0.003432339464230264</v>
+        <v>0.004140276156895074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5897532118196</v>
+        <v>1.822422666666667</v>
       </c>
       <c r="H16">
-        <v>1.5897532118196</v>
+        <v>5.467268</v>
       </c>
       <c r="I16">
-        <v>0.01190787874036175</v>
+        <v>0.01281145864805462</v>
       </c>
       <c r="J16">
-        <v>0.01190787874036175</v>
+        <v>0.01405602271936328</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>65.19581418798562</v>
+        <v>75.55504498527732</v>
       </c>
       <c r="R16">
-        <v>65.19581418798562</v>
+        <v>453.3302699116639</v>
       </c>
       <c r="S16">
-        <v>0.001037647533305855</v>
+        <v>0.001087717022086708</v>
       </c>
       <c r="T16">
-        <v>0.001037647533305855</v>
+        <v>0.0008187599970636726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.610249922978561</v>
+        <v>0.7017803333333333</v>
       </c>
       <c r="H17">
-        <v>0.610249922978561</v>
+        <v>2.105341</v>
       </c>
       <c r="I17">
-        <v>0.004571012676757791</v>
+        <v>0.004933449240380017</v>
       </c>
       <c r="J17">
-        <v>0.004571012676757791</v>
+        <v>0.005412707210988564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>2.049891894776901</v>
+        <v>2.769698663131555</v>
       </c>
       <c r="R17">
-        <v>2.049891894776901</v>
+        <v>24.927287968184</v>
       </c>
       <c r="S17">
-        <v>3.262579499391997E-05</v>
+        <v>3.987355685548248E-05</v>
       </c>
       <c r="T17">
-        <v>3.262579499391997E-05</v>
+        <v>4.502118560848065E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.610249922978561</v>
+        <v>0.7017803333333333</v>
       </c>
       <c r="H18">
-        <v>0.610249922978561</v>
+        <v>2.105341</v>
       </c>
       <c r="I18">
-        <v>0.004571012676757791</v>
+        <v>0.004933449240380017</v>
       </c>
       <c r="J18">
-        <v>0.004571012676757791</v>
+        <v>0.005412707210988564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>106.8131288203806</v>
+        <v>130.3927118524948</v>
       </c>
       <c r="R18">
-        <v>106.8131288203806</v>
+        <v>1173.534406672453</v>
       </c>
       <c r="S18">
-        <v>0.00170002293898146</v>
+        <v>0.001877179376514737</v>
       </c>
       <c r="T18">
-        <v>0.00170002293898146</v>
+        <v>0.002119521000767247</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.610249922978561</v>
+        <v>0.7017803333333333</v>
       </c>
       <c r="H19">
-        <v>0.610249922978561</v>
+        <v>2.105341</v>
       </c>
       <c r="I19">
-        <v>0.004571012676757791</v>
+        <v>0.004933449240380017</v>
       </c>
       <c r="J19">
-        <v>0.004571012676757791</v>
+        <v>0.005412707210988564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>70.52677301762154</v>
+        <v>82.34650032178811</v>
       </c>
       <c r="R19">
-        <v>70.52677301762154</v>
+        <v>741.1185028960931</v>
       </c>
       <c r="S19">
-        <v>0.001122494334417608</v>
+        <v>0.00118548920362275</v>
       </c>
       <c r="T19">
-        <v>0.001122494334417608</v>
+        <v>0.00133853444944958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.610249922978561</v>
+        <v>0.7017803333333333</v>
       </c>
       <c r="H20">
-        <v>0.610249922978561</v>
+        <v>2.105341</v>
       </c>
       <c r="I20">
-        <v>0.004571012676757791</v>
+        <v>0.004933449240380017</v>
       </c>
       <c r="J20">
-        <v>0.004571012676757791</v>
+        <v>0.005412707210988564</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>82.78241870124761</v>
+        <v>98.08373341253744</v>
       </c>
       <c r="R20">
-        <v>82.78241870124761</v>
+        <v>882.7536007128371</v>
       </c>
       <c r="S20">
-        <v>0.001317553490761861</v>
+        <v>0.001412047950516353</v>
       </c>
       <c r="T20">
-        <v>0.001317553490761861</v>
+        <v>0.001594341661033195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.610249922978561</v>
+        <v>0.7017803333333333</v>
       </c>
       <c r="H21">
-        <v>0.610249922978561</v>
+        <v>2.105341</v>
       </c>
       <c r="I21">
-        <v>0.004571012676757791</v>
+        <v>0.004933449240380017</v>
       </c>
       <c r="J21">
-        <v>0.004571012676757791</v>
+        <v>0.005412707210988564</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>25.02636276557971</v>
+        <v>29.09481188124467</v>
       </c>
       <c r="R21">
-        <v>25.02636276557971</v>
+        <v>174.568871287468</v>
       </c>
       <c r="S21">
-        <v>0.0003983161176029429</v>
+        <v>0.0004188591528706937</v>
       </c>
       <c r="T21">
-        <v>0.0003983161176029429</v>
+        <v>0.0003152889141300609</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.6411348833933</v>
+        <v>37.7856235</v>
       </c>
       <c r="H22">
-        <v>34.6411348833933</v>
+        <v>75.571247</v>
       </c>
       <c r="I22">
-        <v>0.2594757667750335</v>
+        <v>0.2656293525182291</v>
       </c>
       <c r="J22">
-        <v>0.2594757667750335</v>
+        <v>0.1942892071072087</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>116.3631144380104</v>
+        <v>149.1275630316547</v>
       </c>
       <c r="R22">
-        <v>116.3631144380104</v>
+        <v>894.765378189928</v>
       </c>
       <c r="S22">
-        <v>0.001852019185100372</v>
+        <v>0.002146892888535071</v>
       </c>
       <c r="T22">
-        <v>0.001852019185100372</v>
+        <v>0.001616036137543199</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.6411348833933</v>
+        <v>37.7856235</v>
       </c>
       <c r="H23">
-        <v>34.6411348833933</v>
+        <v>75.571247</v>
       </c>
       <c r="I23">
-        <v>0.2594757667750335</v>
+        <v>0.2656293525182291</v>
       </c>
       <c r="J23">
-        <v>0.2594757667750335</v>
+        <v>0.1942892071072087</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>6063.299417923988</v>
+        <v>7020.672542646092</v>
       </c>
       <c r="R23">
-        <v>6063.299417923988</v>
+        <v>42124.03525587655</v>
       </c>
       <c r="S23">
-        <v>0.09650263230953059</v>
+        <v>0.1010720731173011</v>
       </c>
       <c r="T23">
-        <v>0.09650263230953059</v>
+        <v>0.07608023834175501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.6411348833933</v>
+        <v>37.7856235</v>
       </c>
       <c r="H24">
-        <v>34.6411348833933</v>
+        <v>75.571247</v>
       </c>
       <c r="I24">
-        <v>0.2594757667750335</v>
+        <v>0.2656293525182291</v>
       </c>
       <c r="J24">
-        <v>0.2594757667750335</v>
+        <v>0.1942892071072087</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>4003.486710935188</v>
+        <v>4433.743309566072</v>
       </c>
       <c r="R24">
-        <v>4003.486710935188</v>
+        <v>26602.45985739643</v>
       </c>
       <c r="S24">
-        <v>0.06371893904486606</v>
+        <v>0.0638297293095096</v>
       </c>
       <c r="T24">
-        <v>0.06371893904486606</v>
+        <v>0.04804671428398688</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.6411348833933</v>
+        <v>37.7856235</v>
       </c>
       <c r="H25">
-        <v>34.6411348833933</v>
+        <v>75.571247</v>
       </c>
       <c r="I25">
-        <v>0.2594757667750335</v>
+        <v>0.2656293525182291</v>
       </c>
       <c r="J25">
-        <v>0.2594757667750335</v>
+        <v>0.1942892071072087</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>4699.184423009267</v>
+        <v>5281.075638863979</v>
       </c>
       <c r="R25">
-        <v>4699.184423009267</v>
+        <v>31686.45383318388</v>
       </c>
       <c r="S25">
-        <v>0.07479156730867914</v>
+        <v>0.07602822377300052</v>
       </c>
       <c r="T25">
-        <v>0.07479156730867914</v>
+        <v>0.05722891800821332</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.6411348833933</v>
+        <v>37.7856235</v>
       </c>
       <c r="H26">
-        <v>34.6411348833933</v>
+        <v>75.571247</v>
       </c>
       <c r="I26">
-        <v>0.2594757667750335</v>
+        <v>0.2656293525182291</v>
       </c>
       <c r="J26">
-        <v>0.2594757667750335</v>
+        <v>0.1942892071072087</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>1420.63370360087</v>
+        <v>1566.538068010889</v>
       </c>
       <c r="R26">
-        <v>1420.63370360087</v>
+        <v>6266.152272043556</v>
       </c>
       <c r="S26">
-        <v>0.0226106089268574</v>
+        <v>0.02255243342988282</v>
       </c>
       <c r="T26">
-        <v>0.0226106089268574</v>
+        <v>0.01131730033571028</v>
       </c>
     </row>
   </sheetData>
